--- a/spreadsheets/Data Sets (development of the rPSO model)(5).xlsx
+++ b/spreadsheets/Data Sets (development of the rPSO model)(5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiaaaa/Library/CloudStorage/OneDrive-ImperialCollegeLondon/Yanan/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/weissd2k_ic_ac_uk/Documents/Environmental Geochemistry New/Projects/Yanan/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C502B1B-E97C-784F-9561-5EB8B357DC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2C502B1B-E97C-784F-9561-5EB8B357DC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB53811-D7BD-4CB1-8785-63231141FEEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="16660" firstSheet="1" activeTab="2" xr2:uid="{2297BBCC-69DE-4CA3-9D96-75B45DC8262C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{2297BBCC-69DE-4CA3-9D96-75B45DC8262C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Cs" sheetId="3" r:id="rId4"/>
     <sheet name="application_2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -477,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,14 +876,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="59.25" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -901,7 +902,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
@@ -920,7 +921,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -928,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -936,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="E14" t="s">
         <v>7</v>
       </c>
@@ -961,14 +962,14 @@
       <selection activeCell="H15" sqref="H15:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:30">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:30">
       <c r="B4">
         <v>14</v>
       </c>
@@ -976,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:30">
       <c r="B5">
         <v>14</v>
       </c>
@@ -984,12 +985,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:30">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:30">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:30">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:30">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:30">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:30">
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:30">
       <c r="C15" s="1">
         <v>0</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:30">
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:30">
       <c r="C17" s="1">
         <v>5</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30">
       <c r="C18" s="1">
         <v>10</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30">
       <c r="C19" s="1">
         <v>20</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:30">
       <c r="C20" s="1">
         <v>25</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30">
       <c r="C21" s="1">
         <v>37.5</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30">
       <c r="C22" s="1">
         <v>50</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30">
       <c r="C23" s="1">
         <v>70</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30">
       <c r="C24" s="1">
         <v>100</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30">
       <c r="C25" s="1">
         <v>120</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:30">
       <c r="C26" s="1">
         <v>150</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30">
       <c r="C27" s="1">
         <v>200</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30">
       <c r="C28" s="1">
         <v>240</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:30">
       <c r="C29" s="1">
         <v>300</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30">
       <c r="C30" s="1">
         <v>480</v>
       </c>
@@ -2441,7 +2442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:30">
       <c r="C31" s="1">
         <v>720</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:30">
       <c r="C32" s="1">
         <v>1440</v>
       </c>
@@ -2503,20 +2504,20 @@
   <dimension ref="B2:AV32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="S35" sqref="R35:S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:48">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:48">
       <c r="B4">
         <v>8</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:48">
       <c r="B5">
         <v>9</v>
       </c>
@@ -2532,12 +2533,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:48">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:48">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:48">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:48">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:48">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:48">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:48">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:48">
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:48">
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:48">
       <c r="C18" s="1">
         <v>5</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:48">
       <c r="C19" s="1">
         <v>10</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:48">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:48">
       <c r="C21" s="1">
         <v>20</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:48">
       <c r="C22" s="1">
         <v>25</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:48">
       <c r="C23" s="1">
         <v>30</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:48">
       <c r="C24" s="1">
         <v>35</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:48">
       <c r="C25" s="1">
         <v>40</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:48">
       <c r="I26" s="1">
         <v>240</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="27" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:48">
       <c r="I27" s="1">
         <v>300</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>19.241658805520103</v>
       </c>
     </row>
-    <row r="28" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:48">
       <c r="O28" s="1">
         <v>210</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>20.446366594225342</v>
       </c>
     </row>
-    <row r="32" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:48">
       <c r="AP32">
         <f>SQRT(0.00319/14)</f>
         <v>1.5094937656616634E-2</v>
@@ -4190,14 +4191,14 @@
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:41">
       <c r="B2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:41">
       <c r="B4">
         <v>6</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:41">
       <c r="B5">
         <v>8</v>
       </c>
@@ -4213,12 +4214,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:41">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:41">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:41">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:41">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:41">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:41">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:41">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -4461,13 +4462,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:41">
       <c r="Y15">
         <f>(0.1-Y14*Y38)/0.1</f>
         <v>-246.49999999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:41">
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:41">
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:41">
       <c r="C18" s="1">
         <v>5</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>1.3793103448275863</v>
       </c>
     </row>
-    <row r="19" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:41">
       <c r="C19" s="1">
         <v>15</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:41">
       <c r="C20" s="1">
         <v>30</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>2.1052631578947367</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:41">
       <c r="C21" s="1">
         <v>50</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:41">
       <c r="C22" s="1">
         <v>80</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:41">
       <c r="C23" s="1">
         <v>100</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>2.3728813559322033</v>
       </c>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:41">
       <c r="C24" s="1">
         <v>130</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>2.4615384615384617</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:41">
       <c r="C25" s="1">
         <v>150</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:41">
       <c r="C26" s="1">
         <v>180</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:41">
       <c r="X27" s="1">
         <v>360</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:41">
       <c r="X28" s="1">
         <v>480</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>2.5263157894736841</v>
       </c>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:41">
       <c r="X29" s="1">
         <v>600</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:41">
       <c r="X30" s="1">
         <v>1440</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>2.5454545454545454</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:41">
       <c r="X31" s="1">
         <v>1560</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>2.5641025641025643</v>
       </c>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:41">
       <c r="X32" s="1">
         <v>1800</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>89.375000000000014</v>
       </c>
     </row>
-    <row r="33" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="24:31">
       <c r="X33" s="1">
         <v>1920</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="34" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="24:31">
       <c r="X34" s="1">
         <v>2280</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="24:31">
       <c r="X35" s="1">
         <v>2520</v>
       </c>
@@ -5960,7 +5961,7 @@
       </c>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="24:31">
       <c r="X36" s="1">
         <v>2760</v>
       </c>
@@ -5975,7 +5976,7 @@
       </c>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="24:31">
       <c r="X37" s="1">
         <v>3000</v>
       </c>
@@ -5990,7 +5991,7 @@
       </c>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="24:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="24:31">
       <c r="X38" s="1">
         <v>3120</v>
       </c>
@@ -6018,17 +6019,17 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:51">
       <c r="B2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:51">
       <c r="B4">
         <v>14</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:51">
       <c r="B5">
         <f>COUNT(C15:BY15)</f>
         <v>25</v>
@@ -6045,7 +6046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:51">
       <c r="B7" t="s">
         <v>108</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:51">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:51">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:51">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:51">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:51">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:51">
       <c r="B14" t="s">
         <v>143</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>2.1951969142057313</v>
       </c>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:51">
       <c r="B15" t="s">
         <v>144</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>1.759881244060141</v>
       </c>
     </row>
-    <row r="17" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:52">
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:52">
       <c r="C18" s="1">
         <v>0</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:52">
       <c r="C19" s="1">
         <v>5</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>0.15200000000000002</v>
       </c>
     </row>
-    <row r="20" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:52">
       <c r="C20" s="1">
         <v>10</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>0.15700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:52">
       <c r="C21" s="1">
         <v>15</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>0.17200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:52">
       <c r="C22" s="1">
         <v>20</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>0.18500000000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:52">
       <c r="C23" s="1">
         <v>25</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>0.1956</v>
       </c>
     </row>
-    <row r="24" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:52">
       <c r="C24" s="1">
         <v>30</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>0.19480000000000003</v>
       </c>
     </row>
-    <row r="25" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:52">
       <c r="C25" s="1">
         <v>35</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:52">
       <c r="C26" s="1">
         <v>40</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="27" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:52">
       <c r="S27" s="1">
         <v>695.30080315340354</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="28" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:52">
       <c r="S28" s="1">
         <v>892.7839034923702</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="29" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:52">
       <c r="AM29" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>0.11800000000000002</v>
       </c>
     </row>
-    <row r="30" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:52">
       <c r="AM30" s="1">
         <v>0.8</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>0.11800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:52">
       <c r="AM31" s="1">
         <v>1</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="32" spans="3:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:52">
       <c r="AM32" s="1">
         <v>1.2</v>
       </c>
@@ -7993,27 +7994,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F3FCB1-D90F-4850-8CF2-2C9A55342209}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F3FCB1-D90F-4850-8CF2-2C9A55342209}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7027C7E0-391A-4907-8632-D0A031BBC89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="58075072-4ccf-445e-9a9a-d271229b0e02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7027C7E0-391A-4907-8632-D0A031BBC89D}"/>
 </file>